--- a/testData/time_rule_test_data.xlsx
+++ b/testData/time_rule_test_data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="108">
   <si>
     <t>测试点说明</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -39,39 +39,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>全选删除</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你确定要删除该选项吗？</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>你确定要删除该选项吗？</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加yx时间规则</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加yy时间规则</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加jz时间规则</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加jy时间规则</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加test时间规则</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -104,26 +76,6 @@
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>yx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>yy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>jz</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>jy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -202,42 +154,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>yx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>yy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>jz</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>jy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sp1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>登录方式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -286,15 +202,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>编辑test时间规则</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>被编辑的时间规则名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>yuan</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -409,18 +317,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>查询时间规则名称为yy</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>yy</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询时间规则名称为test</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>查询时间规则名称为yuan</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -437,16 +333,8 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>test</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>选择名称为yuan的进行删除</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>yuan</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_F04_S05_T05_del_003</t>
@@ -454,6 +342,110 @@
   </si>
   <si>
     <t>直接删除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyh</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加ctest时间规则</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加cjy时间规则</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加cjz时间规则</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加cyy时间规则</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加cyx时间规则</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑ctest时间规则</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询时间规则名称为ctest</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctest</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyy</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询时间规则名称为cyy</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>yuan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yuan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择名称为cyx的进行删除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择名称为cyy的进行删除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择名称为cjz的进行删除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择名称为cjy的进行删除</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -600,7 +592,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -648,6 +640,9 @@
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -947,7 +942,7 @@
   <dimension ref="A1:XDW6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -963,8 +958,9 @@
     <col min="9" max="9" width="4.75" style="2" customWidth="1"/>
     <col min="10" max="10" width="9" style="2" customWidth="1"/>
     <col min="11" max="11" width="11.25" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8.875" style="2" customWidth="1"/>
-    <col min="13" max="15" width="15.625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18" style="2" customWidth="1"/>
+    <col min="14" max="15" width="15.625" style="2" customWidth="1"/>
     <col min="16" max="16" width="52.625" style="2" customWidth="1"/>
     <col min="17" max="17" width="24.625" style="2" customWidth="1"/>
     <col min="18" max="18" width="15.625" style="2" customWidth="1"/>
@@ -982,58 +978,58 @@
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="G1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>43</v>
-      </c>
       <c r="O1" s="11" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="T1" s="11" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="U1" s="6" t="s">
         <v>2</v>
@@ -1041,23 +1037,23 @@
     </row>
     <row r="2" spans="1:16351">
       <c r="A2" s="9" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H2" s="12">
         <v>43380</v>
@@ -1066,59 +1062,59 @@
         <v>1</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>47</v>
+        <v>96</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="9">
         <v>2</v>
       </c>
-      <c r="S2" s="9" t="s">
-        <v>46</v>
+      <c r="S2" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="T2" s="9">
         <v>1</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:16351">
       <c r="A3" s="9" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H3" s="12">
         <v>43381</v>
@@ -1127,38 +1123,38 @@
         <v>1</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>49</v>
+        <v>95</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="Q3" s="9"/>
       <c r="R3" s="9">
         <v>2</v>
       </c>
-      <c r="S3" s="9" t="s">
-        <v>48</v>
+      <c r="S3" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="T3" s="9">
         <v>1</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="V3"/>
       <c r="W3"/>
@@ -17493,23 +17489,23 @@
     </row>
     <row r="4" spans="1:16351">
       <c r="A4" s="9" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H4" s="12">
         <v>43382</v>
@@ -17518,59 +17514,59 @@
         <v>0</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>51</v>
+        <v>94</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="Q4" s="9"/>
       <c r="R4" s="9">
         <v>2</v>
       </c>
-      <c r="S4" s="9" t="s">
-        <v>50</v>
+      <c r="S4" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="T4" s="9">
         <v>1</v>
       </c>
       <c r="U4" s="9" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:16351">
       <c r="A5" s="9" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H5" s="12">
         <v>43388</v>
@@ -17579,59 +17575,59 @@
         <v>0</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>53</v>
+        <v>93</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="9">
         <v>2</v>
       </c>
-      <c r="S5" s="9" t="s">
-        <v>52</v>
+      <c r="S5" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="T5" s="9">
         <v>1</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:16351">
       <c r="A6" s="9" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H6" s="12">
         <v>43391</v>
@@ -17640,38 +17636,38 @@
         <v>0</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>48</v>
+        <v>92</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="Q6" s="9"/>
       <c r="R6" s="9">
         <v>2</v>
       </c>
-      <c r="S6" s="9" t="s">
-        <v>54</v>
+      <c r="S6" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="T6" s="9">
         <v>1</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -17685,8 +17681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -17704,7 +17700,7 @@
     <col min="12" max="12" width="9.75" customWidth="1"/>
     <col min="13" max="13" width="11.75" customWidth="1"/>
     <col min="14" max="14" width="6.5" customWidth="1"/>
-    <col min="15" max="15" width="17.375" customWidth="1"/>
+    <col min="15" max="15" width="18.875" customWidth="1"/>
     <col min="16" max="16" width="26" customWidth="1"/>
   </cols>
   <sheetData>
@@ -17716,43 +17712,43 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="P1" s="6" t="s">
         <v>2</v>
@@ -17760,22 +17756,22 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="9" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G2" s="12">
         <v>47775</v>
@@ -17784,28 +17780,28 @@
         <v>1</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -17820,7 +17816,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -17846,31 +17842,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="G1" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>2</v>
@@ -17878,10 +17874,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="9" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="9"/>
@@ -17893,18 +17889,18 @@
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="13" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -17915,18 +17911,18 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="9" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -17937,19 +17933,19 @@
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="9" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="9" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
@@ -17959,20 +17955,20 @@
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="9" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="F6" s="12">
         <v>41167</v>
@@ -17983,22 +17979,22 @@
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="14" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="H7" s="12">
         <v>42716</v>
@@ -18007,20 +18003,20 @@
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="9" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -18029,15 +18025,15 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="14" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="9"/>
@@ -18046,16 +18042,16 @@
       <c r="G9" s="9"/>
       <c r="H9" s="12"/>
       <c r="I9" s="9" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -18073,7 +18069,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18088,7 +18084,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -18096,44 +18092,44 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="4" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -18144,10 +18140,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18166,7 +18162,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
@@ -18174,40 +18170,84 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="4" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>107</v>
+        <v>5</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="D4" s="4" t="s">
-        <v>108</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/testData/time_rule_test_data.xlsx
+++ b/testData/time_rule_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="add_time_rule" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="116">
   <si>
     <t>测试点说明</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -118,10 +118,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>no</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>03 10 19</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -170,19 +166,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>no</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户在所选时间段内的周一至周五都可以正常登录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>用户在所选时间段内的每月的1,5,9日03,10,19点可以正常登录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户在所选时间段内的周一至周五都禁止登录</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -238,10 +222,6 @@
   </si>
   <si>
     <t>名称不能为空 请选择部门！ 启动日不能为空 终止日不能为空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>起始日必须小于终止日</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -307,10 +287,6 @@
   <si>
     <t>q</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>星期选择周一</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>时间规则名称</t>
@@ -446,6 +422,62 @@
   </si>
   <si>
     <t>选择名称为cjy的进行删除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>04 09 15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01 06 17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户在所选时间段内的周一至周五04,09,15点都可以正常登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户在所选时间段内的周一至周五01,06,17都禁止登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S05_T05_checkout_004</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小时没有选择</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>04 18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小时不能为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始日必须小于终止日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始日必须小于终止日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>18 20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4 5 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -941,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XDW6"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1011,25 +1043,25 @@
         <v>14</v>
       </c>
       <c r="N1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="S1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="T1" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="U1" s="6" t="s">
         <v>2</v>
@@ -1037,13 +1069,13 @@
     </row>
     <row r="2" spans="1:16351">
       <c r="A2" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>15</v>
@@ -1062,49 +1094,49 @@
         <v>1</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="9">
         <v>2</v>
       </c>
       <c r="S2" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="T2" s="9">
         <v>1</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:16351">
       <c r="A3" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>15</v>
@@ -1129,32 +1161,32 @@
         <v>22</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="9"/>
       <c r="R3" s="9">
         <v>2</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="T3" s="9">
         <v>1</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V3"/>
       <c r="W3"/>
@@ -17489,13 +17521,13 @@
     </row>
     <row r="4" spans="1:16351">
       <c r="A4" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>15</v>
@@ -17517,46 +17549,46 @@
         <v>21</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="Q4" s="9"/>
       <c r="R4" s="9">
         <v>2</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="T4" s="9">
         <v>1</v>
       </c>
       <c r="U4" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:16351">
       <c r="A5" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>15</v>
@@ -17581,43 +17613,43 @@
         <v>23</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="9">
         <v>2</v>
       </c>
       <c r="S5" s="16" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="T5" s="9">
         <v>1</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:16351">
       <c r="A6" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>15</v>
@@ -17642,32 +17674,32 @@
         <v>24</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Q6" s="9"/>
       <c r="R6" s="9">
         <v>2</v>
       </c>
       <c r="S6" s="16" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="T6" s="9">
         <v>1</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -17682,7 +17714,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -17712,7 +17744,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>6</v>
@@ -17730,13 +17762,13 @@
         <v>19</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L1" s="11" t="s">
         <v>11</v>
@@ -17756,16 +17788,16 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>18</v>
@@ -17786,22 +17818,22 @@
         <v>24</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>21</v>
       </c>
       <c r="M2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -17813,10 +17845,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -17874,10 +17906,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="9"/>
@@ -17889,18 +17921,18 @@
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -17911,18 +17943,18 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -17933,19 +17965,19 @@
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
@@ -17955,20 +17987,20 @@
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F6" s="12">
         <v>41167</v>
@@ -17979,22 +18011,22 @@
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H7" s="12">
         <v>42716</v>
@@ -18003,15 +18035,15 @@
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="9"/>
@@ -18025,15 +18057,15 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="14" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="9"/>
@@ -18045,17 +18077,40 @@
         <v>20</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>69</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="27">
+      <c r="A10" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
@@ -18084,7 +18139,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -18092,44 +18147,44 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -18142,7 +18197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -18170,84 +18225,84 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
